--- a/results/SAFECOM_hazards_lda_topics_Apr-04-2022/hazard_interpretation_SAFECOM_Final.xlsx
+++ b/results/SAFECOM_hazards_lda_topics_Apr-04-2022/hazard_interpretation_SAFECOM_Final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srandrad\smart_nlp\results\SAFECOM_hazards_lda_topics_Apr-04-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD8B724-7EB1-4BFF-A2A7-8DFEA3A24795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F2646D-1B2C-49B0-AF91-4957D1DC054D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14724" yWindow="672" windowWidth="17280" windowHeight="10044" activeTab="1" xr2:uid="{1E09127A-9D7A-4A65-B2FF-C060090E7D3B}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="10044" firstSheet="1" activeTab="1" xr2:uid="{1E09127A-9D7A-4A65-B2FF-C060090E7D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hazard-focused" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="91">
   <si>
     <t>Hazard level 1 topics</t>
   </si>
@@ -79,18 +79,12 @@
     <t>Hazard Noun/Subject</t>
   </si>
   <si>
-    <t>Drone Incursion</t>
-  </si>
-  <si>
     <t>Hydraulic Fluid Leak</t>
   </si>
   <si>
     <t>Bucket Drop Failure</t>
   </si>
   <si>
-    <t>hydraulic, fluid, hydraulic fluid, leak, hydraulic pressure, pressure, hydraulic pump, hydraulic leak, hydraulic system, system, pump, hydraulic fluid leak, hydraulic failure, fluid leak,  hydralic, loss hydraulic, hydraulics, notice hydraulic fluid, utility hydraulic, lose hydraulic pressure, hydrolic, hydraulic pump fail, hydraulic reservoir</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -103,7 +97,217 @@
     <t>intrusion tfr, intruder, tfr, incursion, tfr intrusion, intrude tfr, tfr violation, tfr incursion, violate tfr, airspace conflict,  drone, enter tfr, drone sight, drone intrusion</t>
   </si>
   <si>
-    <t>bucket, water, dip,  water drop, drop, site, water source, configure bucket, gallon, gal, release water</t>
+    <t>3, 18, 56, 72</t>
+  </si>
+  <si>
+    <t>bucket, water, dip,  water drop, drop, site, water source, configure bucket, gallon, gal, release water, hook, belly hook, belly, release</t>
+  </si>
+  <si>
+    <t>0, 8, 30</t>
+  </si>
+  <si>
+    <t>jettison, jettison load, jettison retardant, jettison retardant load, load, retardant</t>
+  </si>
+  <si>
+    <t>Tanker Loading Failure</t>
+  </si>
+  <si>
+    <t>1, 14, 74</t>
+  </si>
+  <si>
+    <t>Radio Malfunction</t>
+  </si>
+  <si>
+    <t>5, 41, 85</t>
+  </si>
+  <si>
+    <t>caution, master caution, light, master, illuminate, light illuminate, master caution panel, precautionary land, caution light illuminate, reset master, reset master caution, warn light, warn, warn light illuminate</t>
+  </si>
+  <si>
+    <t>On-board Caution Light Illuminates</t>
+  </si>
+  <si>
+    <t>ppe, wear, helmet, flight helmet, glove, nomex, suit, flight suit, proper ppe, hat, shirt, hard hat, boot, passenger, leather, leather boot, proper, require, requirement, wear ppe, personal, require ppe, ppe requirement, nomex shirt, proptection, pant, shoe, appropriate ppe, personal protective, hardhar, personal protective equipment, worn, floatation, wore, equipment, protective, vest, outfit</t>
+  </si>
+  <si>
+    <t>Inadequate PPE</t>
+  </si>
+  <si>
+    <t>11, 22</t>
+  </si>
+  <si>
+    <t>circuit, breaker, circuit breaker, electrical, reset, switch, alternator, meter, popped, smell, panel, electrical power, wire, connection, loose, plug, wiring, loose wire, broken wire, cable</t>
+  </si>
+  <si>
+    <t>Avionics Malfunction</t>
+  </si>
+  <si>
+    <t>13, 32, 92</t>
+  </si>
+  <si>
+    <t>wind, gust, condition, turbulence, inclement weather, inclement, climbed safe altitude, climbed safe, weather, visibility, fire behavior</t>
+  </si>
+  <si>
+    <t>Severe Weather</t>
+  </si>
+  <si>
+    <t>21, 36</t>
+  </si>
+  <si>
+    <t>gear, retract, lock, main gear, nose, gear lock, gear retract, wheel, gear handle, left main gear, gear extend, nose wheel, land gear retract, right main gear, lock position, tire, flat</t>
+  </si>
+  <si>
+    <t>24, 25</t>
+  </si>
+  <si>
+    <t>In-flight Collision</t>
+  </si>
+  <si>
+    <t>27, 37, 47</t>
+  </si>
+  <si>
+    <t>downwind, traffic, runway, traffic pattern, pattern, class airspace, airspace, tower, controller, airport, field, advisory, left downwind, restrict, airfield, announce, mid field, intention, vfr, turn downwind, enter traffic, flight restriction, temporary flight restriction, tfr, pattern, transponder, mapping, code, enter downwind, traffic advisory, restrict area, enter pattern, announce intention, aerial, observer, aerial observer, aerial detection, cautionary</t>
+  </si>
+  <si>
+    <t>Airspace Control Hazards</t>
+  </si>
+  <si>
+    <t>Personnel Duty Hours Exceeded</t>
+  </si>
+  <si>
+    <t>jump, jumper, smokejumper, smokejumpers, spotter, jummp spot, streamer, parachute, jump ship, smoke jumper, jump plane, practice, jumpspot, jumpship, practice jump, para, draft, paracargo, para cargo, yard drift, parachute jump, set streamer</t>
+  </si>
+  <si>
+    <t>23, 42</t>
+  </si>
+  <si>
+    <t>45, 60, 95, 99</t>
+  </si>
+  <si>
+    <t>helitorch, torch, burn, gel, helitorch operation, flame, ignition, barrel, ignite, aerial ignition, aerial ignition helitorch, mix, ignition helitorch, propane, psd, sphere, psd operation, prescribed, psd operator, prescribed burn, blown fuse, slastic sphere, fuse blown, plastic sphere dispenser, dispenser</t>
+  </si>
+  <si>
+    <t>Helitorch Operations Failure</t>
+  </si>
+  <si>
+    <t>Engine Malfunction</t>
+  </si>
+  <si>
+    <t>oil, oil pressure, pressure, cooler, gauge, oil cooler, temperature, transmission oil, gauge, oil temperature, temp, pressure gauge, low oil pressure, engine oil pressure, transmission oil pressure, oil pressure gauge</t>
+  </si>
+  <si>
+    <t>Refuel Truck Problems</t>
+  </si>
+  <si>
+    <t>Load Limits Exceeded</t>
+  </si>
+  <si>
+    <t>sling, cargo, load, hook, net, longline, sling load, remote hook, swivel, long line, line, long, cargo net, backhaul, external load, attach, deliver, release, hooked, sling site, fell ,bag, haul, chain</t>
+  </si>
+  <si>
+    <t>Cargo Letdown Failure</t>
+  </si>
+  <si>
+    <t>door, open, latch, secure, close, door open, compartment</t>
+  </si>
+  <si>
+    <t>medical, hospital, injury, emt, patient, injured, medicav, ambulance, transport, local hospital, life, emergency, medevac, treat, pain, paramedic, minor injury</t>
+  </si>
+  <si>
+    <t>Medivac</t>
+  </si>
+  <si>
+    <t>Intrusion</t>
+  </si>
+  <si>
+    <t>chip, chip light, light, transmission chip, plug, transmission, filter, chip plug, engine chip light, engine, recip engine, spark, spark plug, reciprocate, reciprocate engine, backfire, pop, compressor, bang, stall, compressor stall, gauge, power, normal, rpm, torque, generator, start, starter, battery, starter generator, white smoke come, white smoke, smoke</t>
+  </si>
+  <si>
+    <t>50, 54, 77, 82, 93, 64</t>
+  </si>
+  <si>
+    <t>minor, sprain</t>
+  </si>
+  <si>
+    <t>duty, duty day, exceed, hour duty day</t>
+  </si>
+  <si>
+    <t>hydraulic, hydraulic fluid, hydraulic pressure, hydraulic pump, hydraulic leak, hydraulic system, hydraulic fluid leak, hydraulic failure, fluid leak,  hydralic, loss hydraulic, hydraulics, notice hydraulic fluid, utility hydraulic, lose hydraulic pressure, hydrolic, hydraulic pump fail, hydraulic reservoir</t>
+  </si>
+  <si>
+    <t>oil, fuel</t>
+  </si>
+  <si>
+    <t>calculation, load calculation, allowable, payload, weight, allowable payload, load calc, calc, exceed, gross weight</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>Landing Gear Malfunction</t>
+  </si>
+  <si>
+    <t>Door Failure</t>
+  </si>
+  <si>
+    <t>Jumper Operations Hazards</t>
+  </si>
+  <si>
+    <t>fuel</t>
+  </si>
+  <si>
+    <t>Runway Hazards</t>
+  </si>
+  <si>
+    <t>collisions, near collisions, miscommunications</t>
+  </si>
+  <si>
+    <t>Control Surface Damage</t>
+  </si>
+  <si>
+    <t>gauge, mechanical, engine</t>
+  </si>
+  <si>
+    <t>Oil Malfunction</t>
+  </si>
+  <si>
+    <t>temperature, pressure, gauge</t>
+  </si>
+  <si>
+    <t>strike, wire strike, wire, bird, powerline, struck, impact, tree</t>
+  </si>
+  <si>
+    <t>oil, hydraulic</t>
+  </si>
+  <si>
+    <t>technician, radio technician, radio, transmit, transmission, repeater, communication, frequency, unreadable, unable, unsuccessful, interference</t>
+  </si>
+  <si>
+    <t>control, pitch, yaw, pedal, yoke, aileron, degree, roll, left pedal, servo, aileron control, tail rotor, blade, rotor, tail, tail rotor, main rotor, lead edge</t>
+  </si>
+  <si>
+    <t>Fuel System Malfunction</t>
+  </si>
+  <si>
+    <t>53, 82</t>
+  </si>
+  <si>
+    <t>Runway Collisions</t>
+  </si>
+  <si>
+    <t>stop, taxi, ramp, parking, runway, taxiway, parking tender, taxi way, parking area, hangar, end runway, active runway, taxi ramp, taxi parking, hand signal, approach, tanker base, takeoff, steer</t>
+  </si>
+  <si>
+    <t>fuel truck, fuel truck driver, refuel, chase truck, hot refuel</t>
+  </si>
+  <si>
+    <t>collision, damage, touch, struck, clearance, close</t>
+  </si>
+  <si>
+    <t>fuel leak, spill, leakage, fuel, fuel pressure, shutoff, fuel shutoff, cap, fuel cap, cuel cap, fuel boost, fuel filter, fuel pressure gauge, auxiliary fuel tank, carburator, puddle</t>
+  </si>
+  <si>
+    <t>35, 41, 53, 55, 70, 67, 82, 30, 97, 14, 8, 80, 50, 76, 10, 44, 54, 71, 81, 84, 91, 96, 78, 23, 29, 32, 36, 38, 55, 83</t>
   </si>
 </sst>
 </file>
@@ -514,10 +718,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E799D7D2-7755-4A40-8FAC-FBB6E32500C5}">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -559,7 +763,7 @@
         <v>3</v>
       </c>
       <c r="U1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -570,41 +774,387 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U2" t="s">
         <v>17</v>
-      </c>
-      <c r="R2" t="s">
-        <v>15</v>
-      </c>
-      <c r="U2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="R3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="R4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="R4" t="s">
-        <v>16</v>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+      <c r="R6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>86</v>
+      </c>
+      <c r="R7" t="s">
+        <v>73</v>
+      </c>
+      <c r="U7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="R8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="R10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N11" t="s">
+        <v>68</v>
+      </c>
+      <c r="R11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="R12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>79</v>
+      </c>
+      <c r="R13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="R14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>29</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
+      <c r="R15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>82</v>
+      </c>
+      <c r="R17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="R18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>61</v>
+      </c>
+      <c r="R19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+      <c r="N20" t="s">
+        <v>72</v>
+      </c>
+      <c r="R20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>58</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>87</v>
+      </c>
+      <c r="N21" t="s">
+        <v>76</v>
+      </c>
+      <c r="R21" t="s">
+        <v>53</v>
+      </c>
+      <c r="U21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>63</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>67</v>
+      </c>
+      <c r="R22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>68</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>55</v>
+      </c>
+      <c r="R23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>88</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>57</v>
+      </c>
+      <c r="R24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>98</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>58</v>
+      </c>
+      <c r="N25" t="s">
+        <v>63</v>
+      </c>
+      <c r="R25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>89</v>
+      </c>
+      <c r="N26" t="s">
+        <v>80</v>
+      </c>
+      <c r="R26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>88</v>
+      </c>
+      <c r="R27" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
